--- a/biology/Histoire de la zoologie et de la botanique/Jean-Baptiste_Godart/Jean-Baptiste_Godart.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Baptiste_Godart/Jean-Baptiste_Godart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste Godart est un entomologiste français, né le 25 novembre 1775 à Origny et mort le 27 juillet 1825.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Passionné par les papillons depuis sa jeunesse, il est chargé par Pierre André Latreille (1762-1833) de rédiger l’article sur ces insectes dans l’Encyclopédie méthodique.
 Godart réalise ensuite son Histoire naturelle des lépidoptères ou papillons de France dont la parution commence en 1821 pour ne s’achever qu’en 1842. Outre la faune de France, il étudie également les espèces diurnes exotiques.
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Encyclopédie méthodique : Histoire naturelle: Entomologie, ou Histoire naturelle des crustacés, des arachnides et des insectes: Tome neuvième. [Papillon] / par M. Latreille... et M. Godart / Paris : Agasse , 1819
 Histoire naturelle des lépidoptères ou papillons de France 1ère partie, environs de Paris : Diurnes / par M. J.B. Godart... ; avec les figures de chaque espèce, dessinées et coloriées d'après nature par M. P. Dumenil / Paris : Crevot , 1821
@@ -589,7 +605,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Notices d'autorité : VIAF ISNI BnF (données) IdRef LCCN GND Pays-Bas Israël Grèce WorldCat 
 Jean Lhoste, Les Entomologistes français, 1750-1950, INRA-OPIE, 1987.
